--- a/multilingual_chatbot-1/data/Courses.xlsx
+++ b/multilingual_chatbot-1/data/Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linga\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DA4A33-3FEA-4065-A337-6673FE245524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B23F57-35FB-4E7C-8D8F-783D1D01A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3AD5A2FE-5984-4B6F-AD4D-5CA05BF369AB}"/>
   </bookViews>
@@ -1315,19 +1315,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,13 +1330,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC94A9B6-66CD-4C28-9804-8EDFDFB8C582}">
   <dimension ref="A1:B490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,84 +1688,84 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -1776,332 +1776,332 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="11"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" s="11"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="11"/>
-    </row>
-    <row r="90" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
-      <c r="B90" s="11"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11"/>
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11"/>
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:2" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="11"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" s="11"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="11"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="1:2" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="11"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" s="11"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="9"/>
     </row>
     <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="11"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7"/>
-      <c r="B98" s="11"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
-      <c r="B104" s="11"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6"/>
-      <c r="B105" s="12"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="10"/>
     </row>
     <row r="106" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
@@ -2112,180 +2112,180 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="14"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="14"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="14"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="14"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="14"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="14"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="14"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="9"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="14"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="14"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="14"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="14"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="14"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="7"/>
-      <c r="B119" s="9"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="14"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="9"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="14"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="7"/>
-      <c r="B121" s="9"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="14"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" s="9"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="14"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
-      <c r="B123" s="9"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="14"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="14"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" s="9"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="14"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="7"/>
-      <c r="B126" s="9"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="14"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="7"/>
-      <c r="B127" s="9"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="14"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="7"/>
-      <c r="B128" s="9"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="14"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="7"/>
-      <c r="B129" s="9"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="14"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="7"/>
-      <c r="B130" s="9"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="14"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="7"/>
-      <c r="B131" s="9"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="14"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="7"/>
-      <c r="B132" s="9"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="14"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="7"/>
-      <c r="B133" s="9"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="14"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="7"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="14"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="7"/>
-      <c r="B135" s="9"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="14"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="7"/>
-      <c r="B136" s="9"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="14"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="7"/>
-      <c r="B137" s="9"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="14"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="7"/>
-      <c r="B138" s="9"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="14"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="7"/>
-      <c r="B139" s="9"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="14"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="7"/>
-      <c r="B140" s="9"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="14"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="7"/>
-      <c r="B141" s="9"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="14"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="7"/>
-      <c r="B142" s="9"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="14"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="7"/>
-      <c r="B143" s="9"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="14"/>
     </row>
     <row r="144" spans="1:2" ht="366.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="7"/>
-      <c r="B144" s="9"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="14"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="7"/>
-      <c r="B145" s="9"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="14"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="7"/>
-      <c r="B146" s="9"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="14"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="7"/>
-      <c r="B147" s="9"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="14"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="7"/>
-      <c r="B148" s="9"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="14"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="7"/>
-      <c r="B149" s="9"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="14"/>
     </row>
     <row r="150" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="10"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="15"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
@@ -2296,276 +2296,276 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="13"/>
-      <c r="B152" s="11"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="13"/>
-      <c r="B153" s="11"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="13"/>
-      <c r="B154" s="11"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="13"/>
-      <c r="B155" s="11"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="13"/>
-      <c r="B156" s="11"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="13"/>
-      <c r="B157" s="11"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="9"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="13"/>
-      <c r="B158" s="11"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="9"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="13"/>
-      <c r="B159" s="11"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="13"/>
-      <c r="B160" s="11"/>
+      <c r="A160" s="6"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="13"/>
-      <c r="B161" s="11"/>
+      <c r="A161" s="6"/>
+      <c r="B161" s="9"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="13"/>
-      <c r="B162" s="11"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="9"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="13"/>
-      <c r="B163" s="11"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="9"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="13"/>
-      <c r="B164" s="11"/>
+      <c r="A164" s="6"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="13"/>
-      <c r="B165" s="11"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="13"/>
-      <c r="B166" s="11"/>
+      <c r="A166" s="6"/>
+      <c r="B166" s="9"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="13"/>
-      <c r="B167" s="11"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="13"/>
-      <c r="B168" s="11"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="13"/>
-      <c r="B169" s="11"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="13"/>
-      <c r="B170" s="11"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="13"/>
-      <c r="B171" s="11"/>
+      <c r="A171" s="6"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="13"/>
-      <c r="B172" s="11"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="13"/>
-      <c r="B173" s="11"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="13"/>
-      <c r="B174" s="11"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="13"/>
-      <c r="B175" s="11"/>
+      <c r="A175" s="6"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="13"/>
-      <c r="B176" s="11"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="13"/>
-      <c r="B177" s="11"/>
+      <c r="A177" s="6"/>
+      <c r="B177" s="9"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="13"/>
-      <c r="B178" s="11"/>
+      <c r="A178" s="6"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="13"/>
-      <c r="B179" s="11"/>
+      <c r="A179" s="6"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="13"/>
-      <c r="B180" s="11"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="13"/>
-      <c r="B181" s="11"/>
+      <c r="A181" s="6"/>
+      <c r="B181" s="9"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="13"/>
-      <c r="B182" s="11"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="9"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="13"/>
-      <c r="B183" s="11"/>
+      <c r="A183" s="6"/>
+      <c r="B183" s="9"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="13"/>
-      <c r="B184" s="11"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="13"/>
-      <c r="B185" s="11"/>
+      <c r="A185" s="6"/>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="13"/>
-      <c r="B186" s="11"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="13"/>
-      <c r="B187" s="11"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="13"/>
-      <c r="B188" s="11"/>
+      <c r="A188" s="6"/>
+      <c r="B188" s="9"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="13"/>
-      <c r="B189" s="11"/>
+      <c r="A189" s="6"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="13"/>
-      <c r="B190" s="11"/>
+      <c r="A190" s="6"/>
+      <c r="B190" s="9"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="13"/>
-      <c r="B191" s="11"/>
+      <c r="A191" s="6"/>
+      <c r="B191" s="9"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="13"/>
-      <c r="B192" s="11"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="9"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="13"/>
-      <c r="B193" s="11"/>
+      <c r="A193" s="6"/>
+      <c r="B193" s="9"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="13"/>
-      <c r="B194" s="11"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="9"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="13"/>
-      <c r="B195" s="11"/>
+      <c r="A195" s="6"/>
+      <c r="B195" s="9"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="13"/>
-      <c r="B196" s="11"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="9"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="13"/>
-      <c r="B197" s="11"/>
+      <c r="A197" s="6"/>
+      <c r="B197" s="9"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
-      <c r="B198" s="11"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="9"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="13"/>
-      <c r="B199" s="11"/>
+      <c r="A199" s="6"/>
+      <c r="B199" s="9"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="13"/>
-      <c r="B200" s="11"/>
+      <c r="A200" s="6"/>
+      <c r="B200" s="9"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="13"/>
-      <c r="B201" s="11"/>
+      <c r="A201" s="6"/>
+      <c r="B201" s="9"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="13"/>
-      <c r="B202" s="11"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="13"/>
-      <c r="B203" s="11"/>
-    </row>
-    <row r="204" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="13"/>
-      <c r="B204" s="11"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="9"/>
+    </row>
+    <row r="203" spans="1:2" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="6"/>
+      <c r="B203" s="9"/>
+    </row>
+    <row r="204" spans="1:2" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="6"/>
+      <c r="B204" s="9"/>
     </row>
     <row r="205" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="13"/>
-      <c r="B205" s="11"/>
+      <c r="A205" s="6"/>
+      <c r="B205" s="9"/>
     </row>
     <row r="206" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="13"/>
-      <c r="B206" s="11"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="9"/>
     </row>
     <row r="207" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="13"/>
-      <c r="B207" s="11"/>
+      <c r="A207" s="6"/>
+      <c r="B207" s="9"/>
     </row>
     <row r="208" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="13"/>
-      <c r="B208" s="11"/>
+      <c r="A208" s="6"/>
+      <c r="B208" s="9"/>
     </row>
     <row r="209" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="13"/>
-      <c r="B209" s="11"/>
+      <c r="A209" s="6"/>
+      <c r="B209" s="9"/>
     </row>
     <row r="210" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="13"/>
-      <c r="B210" s="11"/>
+      <c r="A210" s="6"/>
+      <c r="B210" s="9"/>
     </row>
     <row r="211" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="13"/>
-      <c r="B211" s="11"/>
+      <c r="A211" s="6"/>
+      <c r="B211" s="9"/>
     </row>
     <row r="212" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="13"/>
-      <c r="B212" s="11"/>
+      <c r="A212" s="6"/>
+      <c r="B212" s="9"/>
     </row>
     <row r="213" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="13"/>
-      <c r="B213" s="11"/>
+      <c r="A213" s="6"/>
+      <c r="B213" s="9"/>
     </row>
     <row r="214" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="13"/>
-      <c r="B214" s="11"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="13"/>
-      <c r="B215" s="11"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="13"/>
-      <c r="B216" s="11"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="13"/>
-      <c r="B217" s="11"/>
+      <c r="A217" s="6"/>
+      <c r="B217" s="9"/>
     </row>
     <row r="218" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="13"/>
-      <c r="B218" s="11"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="9"/>
     </row>
     <row r="219" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="14"/>
-      <c r="B219" s="12"/>
+      <c r="A219" s="7"/>
+      <c r="B219" s="10"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
@@ -2576,228 +2576,228 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="13"/>
-      <c r="B221" s="11"/>
+      <c r="A221" s="6"/>
+      <c r="B221" s="9"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="13"/>
-      <c r="B222" s="11"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="9"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="13"/>
-      <c r="B223" s="11"/>
+      <c r="A223" s="6"/>
+      <c r="B223" s="9"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="13"/>
-      <c r="B224" s="11"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="9"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="13"/>
-      <c r="B225" s="11"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="9"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="13"/>
-      <c r="B226" s="11"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="9"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="13"/>
-      <c r="B227" s="11"/>
+      <c r="A227" s="6"/>
+      <c r="B227" s="9"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="13"/>
-      <c r="B228" s="11"/>
+      <c r="A228" s="6"/>
+      <c r="B228" s="9"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="13"/>
-      <c r="B229" s="11"/>
+      <c r="A229" s="6"/>
+      <c r="B229" s="9"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="13"/>
-      <c r="B230" s="11"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="9"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="13"/>
-      <c r="B231" s="11"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="9"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="13"/>
-      <c r="B232" s="11"/>
+      <c r="A232" s="6"/>
+      <c r="B232" s="9"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="13"/>
-      <c r="B233" s="11"/>
+      <c r="A233" s="6"/>
+      <c r="B233" s="9"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="13"/>
-      <c r="B234" s="11"/>
+      <c r="A234" s="6"/>
+      <c r="B234" s="9"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="13"/>
-      <c r="B235" s="11"/>
+      <c r="A235" s="6"/>
+      <c r="B235" s="9"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="13"/>
-      <c r="B236" s="11"/>
+      <c r="A236" s="6"/>
+      <c r="B236" s="9"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="13"/>
-      <c r="B237" s="11"/>
+      <c r="A237" s="6"/>
+      <c r="B237" s="9"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="13"/>
-      <c r="B238" s="11"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="9"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="13"/>
-      <c r="B239" s="11"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="9"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="13"/>
-      <c r="B240" s="11"/>
+      <c r="A240" s="6"/>
+      <c r="B240" s="9"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="13"/>
-      <c r="B241" s="11"/>
+      <c r="A241" s="6"/>
+      <c r="B241" s="9"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="13"/>
-      <c r="B242" s="11"/>
+      <c r="A242" s="6"/>
+      <c r="B242" s="9"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="13"/>
-      <c r="B243" s="11"/>
+      <c r="A243" s="6"/>
+      <c r="B243" s="9"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="13"/>
-      <c r="B244" s="11"/>
+      <c r="A244" s="6"/>
+      <c r="B244" s="9"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="13"/>
-      <c r="B245" s="11"/>
+      <c r="A245" s="6"/>
+      <c r="B245" s="9"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="13"/>
-      <c r="B246" s="11"/>
+      <c r="A246" s="6"/>
+      <c r="B246" s="9"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="13"/>
-      <c r="B247" s="11"/>
+      <c r="A247" s="6"/>
+      <c r="B247" s="9"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="13"/>
-      <c r="B248" s="11"/>
+      <c r="A248" s="6"/>
+      <c r="B248" s="9"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="13"/>
-      <c r="B249" s="11"/>
+      <c r="A249" s="6"/>
+      <c r="B249" s="9"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="13"/>
-      <c r="B250" s="11"/>
+      <c r="A250" s="6"/>
+      <c r="B250" s="9"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="13"/>
-      <c r="B251" s="11"/>
+      <c r="A251" s="6"/>
+      <c r="B251" s="9"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="13"/>
-      <c r="B252" s="11"/>
+      <c r="A252" s="6"/>
+      <c r="B252" s="9"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="13"/>
-      <c r="B253" s="11"/>
+      <c r="A253" s="6"/>
+      <c r="B253" s="9"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="13"/>
-      <c r="B254" s="11"/>
+      <c r="A254" s="6"/>
+      <c r="B254" s="9"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="13"/>
-      <c r="B255" s="11"/>
+      <c r="A255" s="6"/>
+      <c r="B255" s="9"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="13"/>
-      <c r="B256" s="11"/>
+      <c r="A256" s="6"/>
+      <c r="B256" s="9"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="13"/>
-      <c r="B257" s="11"/>
+      <c r="A257" s="6"/>
+      <c r="B257" s="9"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="13"/>
-      <c r="B258" s="11"/>
+      <c r="A258" s="6"/>
+      <c r="B258" s="9"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="13"/>
-      <c r="B259" s="11"/>
+      <c r="A259" s="6"/>
+      <c r="B259" s="9"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="13"/>
-      <c r="B260" s="11"/>
+      <c r="A260" s="6"/>
+      <c r="B260" s="9"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="13"/>
-      <c r="B261" s="11"/>
+      <c r="A261" s="6"/>
+      <c r="B261" s="9"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="13"/>
-      <c r="B262" s="11"/>
+      <c r="A262" s="6"/>
+      <c r="B262" s="9"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="13"/>
-      <c r="B263" s="11"/>
+      <c r="A263" s="6"/>
+      <c r="B263" s="9"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="13"/>
-      <c r="B264" s="11"/>
+      <c r="A264" s="6"/>
+      <c r="B264" s="9"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="13"/>
-      <c r="B265" s="11"/>
+      <c r="A265" s="6"/>
+      <c r="B265" s="9"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="13"/>
-      <c r="B266" s="11"/>
+      <c r="A266" s="6"/>
+      <c r="B266" s="9"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="13"/>
-      <c r="B267" s="11"/>
+      <c r="A267" s="6"/>
+      <c r="B267" s="9"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="13"/>
-      <c r="B268" s="11"/>
+      <c r="A268" s="6"/>
+      <c r="B268" s="9"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="13"/>
-      <c r="B269" s="11"/>
+      <c r="A269" s="6"/>
+      <c r="B269" s="9"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="13"/>
-      <c r="B270" s="11"/>
+      <c r="A270" s="6"/>
+      <c r="B270" s="9"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="13"/>
-      <c r="B271" s="11"/>
+      <c r="A271" s="6"/>
+      <c r="B271" s="9"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="13"/>
-      <c r="B272" s="11"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="13"/>
-      <c r="B273" s="11"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="13"/>
-      <c r="B274" s="11"/>
-    </row>
-    <row r="275" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="13"/>
-      <c r="B275" s="11"/>
+      <c r="A272" s="6"/>
+      <c r="B272" s="9"/>
+    </row>
+    <row r="273" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="6"/>
+      <c r="B273" s="9"/>
+    </row>
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="6"/>
+      <c r="B274" s="9"/>
+    </row>
+    <row r="275" spans="1:2" ht="6.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="6"/>
+      <c r="B275" s="9"/>
     </row>
     <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="14"/>
-      <c r="B276" s="12"/>
+      <c r="A276" s="7"/>
+      <c r="B276" s="10"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
@@ -2808,148 +2808,148 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="13"/>
-      <c r="B278" s="11"/>
+      <c r="A278" s="6"/>
+      <c r="B278" s="9"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="13"/>
-      <c r="B279" s="11"/>
+      <c r="A279" s="6"/>
+      <c r="B279" s="9"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="13"/>
-      <c r="B280" s="11"/>
+      <c r="A280" s="6"/>
+      <c r="B280" s="9"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="13"/>
-      <c r="B281" s="11"/>
+      <c r="A281" s="6"/>
+      <c r="B281" s="9"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="13"/>
-      <c r="B282" s="11"/>
+      <c r="A282" s="6"/>
+      <c r="B282" s="9"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="13"/>
-      <c r="B283" s="11"/>
+      <c r="A283" s="6"/>
+      <c r="B283" s="9"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="13"/>
-      <c r="B284" s="11"/>
+      <c r="A284" s="6"/>
+      <c r="B284" s="9"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="13"/>
-      <c r="B285" s="11"/>
+      <c r="A285" s="6"/>
+      <c r="B285" s="9"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="13"/>
-      <c r="B286" s="11"/>
+      <c r="A286" s="6"/>
+      <c r="B286" s="9"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="13"/>
-      <c r="B287" s="11"/>
+      <c r="A287" s="6"/>
+      <c r="B287" s="9"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="13"/>
-      <c r="B288" s="11"/>
+      <c r="A288" s="6"/>
+      <c r="B288" s="9"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="13"/>
-      <c r="B289" s="11"/>
+      <c r="A289" s="6"/>
+      <c r="B289" s="9"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="13"/>
-      <c r="B290" s="11"/>
+      <c r="A290" s="6"/>
+      <c r="B290" s="9"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="13"/>
-      <c r="B291" s="11"/>
+      <c r="A291" s="6"/>
+      <c r="B291" s="9"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="13"/>
-      <c r="B292" s="11"/>
+      <c r="A292" s="6"/>
+      <c r="B292" s="9"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="13"/>
-      <c r="B293" s="11"/>
+      <c r="A293" s="6"/>
+      <c r="B293" s="9"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="13"/>
-      <c r="B294" s="11"/>
+      <c r="A294" s="6"/>
+      <c r="B294" s="9"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="13"/>
-      <c r="B295" s="11"/>
+      <c r="A295" s="6"/>
+      <c r="B295" s="9"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="13"/>
-      <c r="B296" s="11"/>
+      <c r="A296" s="6"/>
+      <c r="B296" s="9"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="13"/>
-      <c r="B297" s="11"/>
+      <c r="A297" s="6"/>
+      <c r="B297" s="9"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="13"/>
-      <c r="B298" s="11"/>
+      <c r="A298" s="6"/>
+      <c r="B298" s="9"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="13"/>
-      <c r="B299" s="11"/>
+      <c r="A299" s="6"/>
+      <c r="B299" s="9"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="13"/>
-      <c r="B300" s="11"/>
+      <c r="A300" s="6"/>
+      <c r="B300" s="9"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="13"/>
-      <c r="B301" s="11"/>
+      <c r="A301" s="6"/>
+      <c r="B301" s="9"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="13"/>
-      <c r="B302" s="11"/>
+      <c r="A302" s="6"/>
+      <c r="B302" s="9"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="13"/>
-      <c r="B303" s="11"/>
+      <c r="A303" s="6"/>
+      <c r="B303" s="9"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="13"/>
-      <c r="B304" s="11"/>
+      <c r="A304" s="6"/>
+      <c r="B304" s="9"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="13"/>
-      <c r="B305" s="11"/>
+      <c r="A305" s="6"/>
+      <c r="B305" s="9"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="13"/>
-      <c r="B306" s="11"/>
+      <c r="A306" s="6"/>
+      <c r="B306" s="9"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="13"/>
-      <c r="B307" s="11"/>
+      <c r="A307" s="6"/>
+      <c r="B307" s="9"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="13"/>
-      <c r="B308" s="11"/>
+      <c r="A308" s="6"/>
+      <c r="B308" s="9"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="13"/>
-      <c r="B309" s="11"/>
+      <c r="A309" s="6"/>
+      <c r="B309" s="9"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="13"/>
-      <c r="B310" s="11"/>
+      <c r="A310" s="6"/>
+      <c r="B310" s="9"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="13"/>
-      <c r="B311" s="11"/>
+      <c r="A311" s="6"/>
+      <c r="B311" s="9"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="13"/>
-      <c r="B312" s="11"/>
+      <c r="A312" s="6"/>
+      <c r="B312" s="9"/>
     </row>
     <row r="313" spans="1:2" ht="306" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="14"/>
-      <c r="B313" s="12"/>
+      <c r="A313" s="7"/>
+      <c r="B313" s="10"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
@@ -2960,175 +2960,175 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="7"/>
-      <c r="B315" s="11"/>
+      <c r="A315" s="11"/>
+      <c r="B315" s="9"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="7"/>
-      <c r="B316" s="11"/>
+      <c r="A316" s="11"/>
+      <c r="B316" s="9"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="7"/>
-      <c r="B317" s="11"/>
+      <c r="A317" s="11"/>
+      <c r="B317" s="9"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="7"/>
-      <c r="B318" s="11"/>
+      <c r="A318" s="11"/>
+      <c r="B318" s="9"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="7"/>
-      <c r="B319" s="11"/>
+      <c r="A319" s="11"/>
+      <c r="B319" s="9"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="7"/>
-      <c r="B320" s="11"/>
+      <c r="A320" s="11"/>
+      <c r="B320" s="9"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="7"/>
-      <c r="B321" s="11"/>
+      <c r="A321" s="11"/>
+      <c r="B321" s="9"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="7"/>
-      <c r="B322" s="11"/>
+      <c r="A322" s="11"/>
+      <c r="B322" s="9"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="7"/>
-      <c r="B323" s="11"/>
+      <c r="A323" s="11"/>
+      <c r="B323" s="9"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="7"/>
-      <c r="B324" s="11"/>
+      <c r="A324" s="11"/>
+      <c r="B324" s="9"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="7"/>
-      <c r="B325" s="11"/>
+      <c r="A325" s="11"/>
+      <c r="B325" s="9"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="7"/>
-      <c r="B326" s="11"/>
+      <c r="A326" s="11"/>
+      <c r="B326" s="9"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="7"/>
-      <c r="B327" s="11"/>
+      <c r="A327" s="11"/>
+      <c r="B327" s="9"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="7"/>
-      <c r="B328" s="11"/>
+      <c r="A328" s="11"/>
+      <c r="B328" s="9"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="7"/>
-      <c r="B329" s="11"/>
+      <c r="A329" s="11"/>
+      <c r="B329" s="9"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="7"/>
-      <c r="B330" s="11"/>
+      <c r="A330" s="11"/>
+      <c r="B330" s="9"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="7"/>
-      <c r="B331" s="11"/>
+      <c r="A331" s="11"/>
+      <c r="B331" s="9"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="7"/>
-      <c r="B332" s="11"/>
+      <c r="A332" s="11"/>
+      <c r="B332" s="9"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="7"/>
-      <c r="B333" s="11"/>
+      <c r="A333" s="11"/>
+      <c r="B333" s="9"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="7"/>
-      <c r="B334" s="11"/>
+      <c r="A334" s="11"/>
+      <c r="B334" s="9"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="7"/>
-      <c r="B335" s="11"/>
+      <c r="A335" s="11"/>
+      <c r="B335" s="9"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="7"/>
-      <c r="B336" s="11"/>
+      <c r="A336" s="11"/>
+      <c r="B336" s="9"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="7"/>
-      <c r="B337" s="11"/>
+      <c r="A337" s="11"/>
+      <c r="B337" s="9"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="7"/>
-      <c r="B338" s="11"/>
+      <c r="A338" s="11"/>
+      <c r="B338" s="9"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="7"/>
-      <c r="B339" s="11"/>
+      <c r="A339" s="11"/>
+      <c r="B339" s="9"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="7"/>
-      <c r="B340" s="11"/>
+      <c r="A340" s="11"/>
+      <c r="B340" s="9"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="7"/>
-      <c r="B341" s="11"/>
+      <c r="A341" s="11"/>
+      <c r="B341" s="9"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="7"/>
-      <c r="B342" s="11"/>
+      <c r="A342" s="11"/>
+      <c r="B342" s="9"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="7"/>
-      <c r="B343" s="11"/>
+      <c r="A343" s="11"/>
+      <c r="B343" s="9"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="7"/>
-      <c r="B344" s="11"/>
+      <c r="A344" s="11"/>
+      <c r="B344" s="9"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="7"/>
-      <c r="B345" s="11"/>
+      <c r="A345" s="11"/>
+      <c r="B345" s="9"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="7"/>
-      <c r="B346" s="11"/>
+      <c r="A346" s="11"/>
+      <c r="B346" s="9"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="7"/>
-      <c r="B347" s="11"/>
+      <c r="A347" s="11"/>
+      <c r="B347" s="9"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="7"/>
-      <c r="B348" s="11"/>
+      <c r="A348" s="11"/>
+      <c r="B348" s="9"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="7"/>
-      <c r="B349" s="11"/>
+      <c r="A349" s="11"/>
+      <c r="B349" s="9"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="7"/>
-      <c r="B350" s="11"/>
+      <c r="A350" s="11"/>
+      <c r="B350" s="9"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="7"/>
-      <c r="B351" s="11"/>
+      <c r="A351" s="11"/>
+      <c r="B351" s="9"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="7"/>
-      <c r="B352" s="11"/>
+      <c r="A352" s="11"/>
+      <c r="B352" s="9"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="7"/>
-      <c r="B353" s="11"/>
+      <c r="A353" s="11"/>
+      <c r="B353" s="9"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="7"/>
-      <c r="B354" s="11"/>
+      <c r="A354" s="11"/>
+      <c r="B354" s="9"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="7"/>
-      <c r="B355" s="11"/>
-    </row>
-    <row r="356" spans="1:2" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="6"/>
-      <c r="B356" s="12"/>
+      <c r="A355" s="11"/>
+      <c r="B355" s="9"/>
+    </row>
+    <row r="356" spans="1:2" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="12"/>
+      <c r="B356" s="10"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="15" t="s">
+      <c r="A357" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B357" s="8" t="s">
@@ -3136,183 +3136,183 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="13"/>
-      <c r="B358" s="11"/>
+      <c r="A358" s="6"/>
+      <c r="B358" s="9"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="13"/>
-      <c r="B359" s="11"/>
+      <c r="A359" s="6"/>
+      <c r="B359" s="9"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="13"/>
-      <c r="B360" s="11"/>
+      <c r="A360" s="6"/>
+      <c r="B360" s="9"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="13"/>
-      <c r="B361" s="11"/>
+      <c r="A361" s="6"/>
+      <c r="B361" s="9"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="13"/>
-      <c r="B362" s="11"/>
+      <c r="A362" s="6"/>
+      <c r="B362" s="9"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="13"/>
-      <c r="B363" s="11"/>
+      <c r="A363" s="6"/>
+      <c r="B363" s="9"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="13"/>
-      <c r="B364" s="11"/>
+      <c r="A364" s="6"/>
+      <c r="B364" s="9"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="13"/>
-      <c r="B365" s="11"/>
+      <c r="A365" s="6"/>
+      <c r="B365" s="9"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="13"/>
-      <c r="B366" s="11"/>
+      <c r="A366" s="6"/>
+      <c r="B366" s="9"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="13"/>
-      <c r="B367" s="11"/>
+      <c r="A367" s="6"/>
+      <c r="B367" s="9"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="13"/>
-      <c r="B368" s="11"/>
+      <c r="A368" s="6"/>
+      <c r="B368" s="9"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="13"/>
-      <c r="B369" s="11"/>
+      <c r="A369" s="6"/>
+      <c r="B369" s="9"/>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="13"/>
-      <c r="B370" s="11"/>
+      <c r="A370" s="6"/>
+      <c r="B370" s="9"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="13"/>
-      <c r="B371" s="11"/>
+      <c r="A371" s="6"/>
+      <c r="B371" s="9"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="13"/>
-      <c r="B372" s="11"/>
+      <c r="A372" s="6"/>
+      <c r="B372" s="9"/>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="13"/>
-      <c r="B373" s="11"/>
+      <c r="A373" s="6"/>
+      <c r="B373" s="9"/>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="13"/>
-      <c r="B374" s="11"/>
+      <c r="A374" s="6"/>
+      <c r="B374" s="9"/>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="13"/>
-      <c r="B375" s="11"/>
+      <c r="A375" s="6"/>
+      <c r="B375" s="9"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="13"/>
-      <c r="B376" s="11"/>
+      <c r="A376" s="6"/>
+      <c r="B376" s="9"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="13"/>
-      <c r="B377" s="11"/>
+      <c r="A377" s="6"/>
+      <c r="B377" s="9"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="13"/>
-      <c r="B378" s="11"/>
+      <c r="A378" s="6"/>
+      <c r="B378" s="9"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="13"/>
-      <c r="B379" s="11"/>
+      <c r="A379" s="6"/>
+      <c r="B379" s="9"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="13"/>
-      <c r="B380" s="11"/>
+      <c r="A380" s="6"/>
+      <c r="B380" s="9"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="13"/>
-      <c r="B381" s="11"/>
+      <c r="A381" s="6"/>
+      <c r="B381" s="9"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="13"/>
-      <c r="B382" s="11"/>
+      <c r="A382" s="6"/>
+      <c r="B382" s="9"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="13"/>
-      <c r="B383" s="11"/>
+      <c r="A383" s="6"/>
+      <c r="B383" s="9"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="13"/>
-      <c r="B384" s="11"/>
+      <c r="A384" s="6"/>
+      <c r="B384" s="9"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="13"/>
-      <c r="B385" s="11"/>
+      <c r="A385" s="6"/>
+      <c r="B385" s="9"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="13"/>
-      <c r="B386" s="11"/>
+      <c r="A386" s="6"/>
+      <c r="B386" s="9"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="13"/>
-      <c r="B387" s="11"/>
+      <c r="A387" s="6"/>
+      <c r="B387" s="9"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="13"/>
-      <c r="B388" s="11"/>
+      <c r="A388" s="6"/>
+      <c r="B388" s="9"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="13"/>
-      <c r="B389" s="11"/>
+      <c r="A389" s="6"/>
+      <c r="B389" s="9"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="13"/>
-      <c r="B390" s="11"/>
+      <c r="A390" s="6"/>
+      <c r="B390" s="9"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="13"/>
-      <c r="B391" s="11"/>
+      <c r="A391" s="6"/>
+      <c r="B391" s="9"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="13"/>
-      <c r="B392" s="11"/>
+      <c r="A392" s="6"/>
+      <c r="B392" s="9"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="13"/>
-      <c r="B393" s="11"/>
+      <c r="A393" s="6"/>
+      <c r="B393" s="9"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="13"/>
-      <c r="B394" s="11"/>
+      <c r="A394" s="6"/>
+      <c r="B394" s="9"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="13"/>
-      <c r="B395" s="11"/>
+      <c r="A395" s="6"/>
+      <c r="B395" s="9"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="13"/>
-      <c r="B396" s="11"/>
+      <c r="A396" s="6"/>
+      <c r="B396" s="9"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="13"/>
-      <c r="B397" s="11"/>
+      <c r="A397" s="6"/>
+      <c r="B397" s="9"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="13"/>
-      <c r="B398" s="11"/>
+      <c r="A398" s="6"/>
+      <c r="B398" s="9"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="13"/>
-      <c r="B399" s="11"/>
+      <c r="A399" s="6"/>
+      <c r="B399" s="9"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="13"/>
-      <c r="B400" s="11"/>
-    </row>
-    <row r="401" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="14"/>
-      <c r="B401" s="12"/>
+      <c r="A400" s="6"/>
+      <c r="B400" s="9"/>
+    </row>
+    <row r="401" spans="1:2" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="7"/>
+      <c r="B401" s="10"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="15" t="s">
+      <c r="A402" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B402" s="8" t="s">
@@ -3320,148 +3320,148 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="13"/>
-      <c r="B403" s="11"/>
+      <c r="A403" s="6"/>
+      <c r="B403" s="9"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="13"/>
-      <c r="B404" s="11"/>
+      <c r="A404" s="6"/>
+      <c r="B404" s="9"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="13"/>
-      <c r="B405" s="11"/>
+      <c r="A405" s="6"/>
+      <c r="B405" s="9"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="13"/>
-      <c r="B406" s="11"/>
+      <c r="A406" s="6"/>
+      <c r="B406" s="9"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="13"/>
-      <c r="B407" s="11"/>
+      <c r="A407" s="6"/>
+      <c r="B407" s="9"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="13"/>
-      <c r="B408" s="11"/>
+      <c r="A408" s="6"/>
+      <c r="B408" s="9"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="13"/>
-      <c r="B409" s="11"/>
+      <c r="A409" s="6"/>
+      <c r="B409" s="9"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="13"/>
-      <c r="B410" s="11"/>
+      <c r="A410" s="6"/>
+      <c r="B410" s="9"/>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="13"/>
-      <c r="B411" s="11"/>
+      <c r="A411" s="6"/>
+      <c r="B411" s="9"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="13"/>
-      <c r="B412" s="11"/>
+      <c r="A412" s="6"/>
+      <c r="B412" s="9"/>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="13"/>
-      <c r="B413" s="11"/>
+      <c r="A413" s="6"/>
+      <c r="B413" s="9"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="13"/>
-      <c r="B414" s="11"/>
+      <c r="A414" s="6"/>
+      <c r="B414" s="9"/>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="13"/>
-      <c r="B415" s="11"/>
+      <c r="A415" s="6"/>
+      <c r="B415" s="9"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="13"/>
-      <c r="B416" s="11"/>
+      <c r="A416" s="6"/>
+      <c r="B416" s="9"/>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="13"/>
-      <c r="B417" s="11"/>
+      <c r="A417" s="6"/>
+      <c r="B417" s="9"/>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="13"/>
-      <c r="B418" s="11"/>
+      <c r="A418" s="6"/>
+      <c r="B418" s="9"/>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="13"/>
-      <c r="B419" s="11"/>
+      <c r="A419" s="6"/>
+      <c r="B419" s="9"/>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="13"/>
-      <c r="B420" s="11"/>
+      <c r="A420" s="6"/>
+      <c r="B420" s="9"/>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="13"/>
-      <c r="B421" s="11"/>
+      <c r="A421" s="6"/>
+      <c r="B421" s="9"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="13"/>
-      <c r="B422" s="11"/>
+      <c r="A422" s="6"/>
+      <c r="B422" s="9"/>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="13"/>
-      <c r="B423" s="11"/>
+      <c r="A423" s="6"/>
+      <c r="B423" s="9"/>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="13"/>
-      <c r="B424" s="11"/>
+      <c r="A424" s="6"/>
+      <c r="B424" s="9"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="13"/>
-      <c r="B425" s="11"/>
+      <c r="A425" s="6"/>
+      <c r="B425" s="9"/>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="13"/>
-      <c r="B426" s="11"/>
+      <c r="A426" s="6"/>
+      <c r="B426" s="9"/>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="13"/>
-      <c r="B427" s="11"/>
+      <c r="A427" s="6"/>
+      <c r="B427" s="9"/>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="13"/>
-      <c r="B428" s="11"/>
+      <c r="A428" s="6"/>
+      <c r="B428" s="9"/>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="13"/>
-      <c r="B429" s="11"/>
+      <c r="A429" s="6"/>
+      <c r="B429" s="9"/>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="13"/>
-      <c r="B430" s="11"/>
+      <c r="A430" s="6"/>
+      <c r="B430" s="9"/>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="13"/>
-      <c r="B431" s="11"/>
+      <c r="A431" s="6"/>
+      <c r="B431" s="9"/>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="13"/>
-      <c r="B432" s="11"/>
+      <c r="A432" s="6"/>
+      <c r="B432" s="9"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="13"/>
-      <c r="B433" s="11"/>
+      <c r="A433" s="6"/>
+      <c r="B433" s="9"/>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="13"/>
-      <c r="B434" s="11"/>
+      <c r="A434" s="6"/>
+      <c r="B434" s="9"/>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="13"/>
-      <c r="B435" s="11"/>
+      <c r="A435" s="6"/>
+      <c r="B435" s="9"/>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="13"/>
-      <c r="B436" s="11"/>
+      <c r="A436" s="6"/>
+      <c r="B436" s="9"/>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="13"/>
-      <c r="B437" s="11"/>
-    </row>
-    <row r="438" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="14"/>
-      <c r="B438" s="12"/>
+      <c r="A437" s="6"/>
+      <c r="B437" s="9"/>
+    </row>
+    <row r="438" spans="1:2" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="7"/>
+      <c r="B438" s="10"/>
     </row>
     <row r="439" spans="1:2" ht="235.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
@@ -3480,207 +3480,219 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="13"/>
-      <c r="B441" s="11"/>
+      <c r="A441" s="6"/>
+      <c r="B441" s="9"/>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="13"/>
-      <c r="B442" s="11"/>
+      <c r="A442" s="6"/>
+      <c r="B442" s="9"/>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="13"/>
-      <c r="B443" s="11"/>
+      <c r="A443" s="6"/>
+      <c r="B443" s="9"/>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="13"/>
-      <c r="B444" s="11"/>
+      <c r="A444" s="6"/>
+      <c r="B444" s="9"/>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="13"/>
-      <c r="B445" s="11"/>
+      <c r="A445" s="6"/>
+      <c r="B445" s="9"/>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="13"/>
-      <c r="B446" s="11"/>
+      <c r="A446" s="6"/>
+      <c r="B446" s="9"/>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="13"/>
-      <c r="B447" s="11"/>
+      <c r="A447" s="6"/>
+      <c r="B447" s="9"/>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="13"/>
-      <c r="B448" s="11"/>
+      <c r="A448" s="6"/>
+      <c r="B448" s="9"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="13"/>
-      <c r="B449" s="11"/>
+      <c r="A449" s="6"/>
+      <c r="B449" s="9"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="13"/>
-      <c r="B450" s="11"/>
+      <c r="A450" s="6"/>
+      <c r="B450" s="9"/>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="13"/>
-      <c r="B451" s="11"/>
+      <c r="A451" s="6"/>
+      <c r="B451" s="9"/>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="13"/>
-      <c r="B452" s="11"/>
+      <c r="A452" s="6"/>
+      <c r="B452" s="9"/>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="13"/>
-      <c r="B453" s="11"/>
+      <c r="A453" s="6"/>
+      <c r="B453" s="9"/>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="13"/>
-      <c r="B454" s="11"/>
+      <c r="A454" s="6"/>
+      <c r="B454" s="9"/>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="13"/>
-      <c r="B455" s="11"/>
+      <c r="A455" s="6"/>
+      <c r="B455" s="9"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="13"/>
-      <c r="B456" s="11"/>
+      <c r="A456" s="6"/>
+      <c r="B456" s="9"/>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="13"/>
-      <c r="B457" s="11"/>
+      <c r="A457" s="6"/>
+      <c r="B457" s="9"/>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="13"/>
-      <c r="B458" s="11"/>
+      <c r="A458" s="6"/>
+      <c r="B458" s="9"/>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="13"/>
-      <c r="B459" s="11"/>
+      <c r="A459" s="6"/>
+      <c r="B459" s="9"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="13"/>
-      <c r="B460" s="11"/>
+      <c r="A460" s="6"/>
+      <c r="B460" s="9"/>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="13"/>
-      <c r="B461" s="11"/>
+      <c r="A461" s="6"/>
+      <c r="B461" s="9"/>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="13"/>
-      <c r="B462" s="11"/>
+      <c r="A462" s="6"/>
+      <c r="B462" s="9"/>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="13"/>
-      <c r="B463" s="11"/>
+      <c r="A463" s="6"/>
+      <c r="B463" s="9"/>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="13"/>
-      <c r="B464" s="11"/>
+      <c r="A464" s="6"/>
+      <c r="B464" s="9"/>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="13"/>
-      <c r="B465" s="11"/>
+      <c r="A465" s="6"/>
+      <c r="B465" s="9"/>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="13"/>
-      <c r="B466" s="11"/>
+      <c r="A466" s="6"/>
+      <c r="B466" s="9"/>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="13"/>
-      <c r="B467" s="11"/>
+      <c r="A467" s="6"/>
+      <c r="B467" s="9"/>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="13"/>
-      <c r="B468" s="11"/>
+      <c r="A468" s="6"/>
+      <c r="B468" s="9"/>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="13"/>
-      <c r="B469" s="11"/>
+      <c r="A469" s="6"/>
+      <c r="B469" s="9"/>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="13"/>
-      <c r="B470" s="11"/>
+      <c r="A470" s="6"/>
+      <c r="B470" s="9"/>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="13"/>
-      <c r="B471" s="11"/>
+      <c r="A471" s="6"/>
+      <c r="B471" s="9"/>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="13"/>
-      <c r="B472" s="11"/>
+      <c r="A472" s="6"/>
+      <c r="B472" s="9"/>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="13"/>
-      <c r="B473" s="11"/>
+      <c r="A473" s="6"/>
+      <c r="B473" s="9"/>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="13"/>
-      <c r="B474" s="11"/>
+      <c r="A474" s="6"/>
+      <c r="B474" s="9"/>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="13"/>
-      <c r="B475" s="11"/>
+      <c r="A475" s="6"/>
+      <c r="B475" s="9"/>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="13"/>
-      <c r="B476" s="11"/>
+      <c r="A476" s="6"/>
+      <c r="B476" s="9"/>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="13"/>
-      <c r="B477" s="11"/>
+      <c r="A477" s="6"/>
+      <c r="B477" s="9"/>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="13"/>
-      <c r="B478" s="11"/>
+      <c r="A478" s="6"/>
+      <c r="B478" s="9"/>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="13"/>
-      <c r="B479" s="11"/>
+      <c r="A479" s="6"/>
+      <c r="B479" s="9"/>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="13"/>
-      <c r="B480" s="11"/>
+      <c r="A480" s="6"/>
+      <c r="B480" s="9"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="13"/>
-      <c r="B481" s="11"/>
+      <c r="A481" s="6"/>
+      <c r="B481" s="9"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="13"/>
-      <c r="B482" s="11"/>
+      <c r="A482" s="6"/>
+      <c r="B482" s="9"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="13"/>
-      <c r="B483" s="11"/>
+      <c r="A483" s="6"/>
+      <c r="B483" s="9"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="13"/>
-      <c r="B484" s="11"/>
+      <c r="A484" s="6"/>
+      <c r="B484" s="9"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="13"/>
-      <c r="B485" s="11"/>
+      <c r="A485" s="6"/>
+      <c r="B485" s="9"/>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="13"/>
-      <c r="B486" s="11"/>
+      <c r="A486" s="6"/>
+      <c r="B486" s="9"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="13"/>
-      <c r="B487" s="11"/>
+      <c r="A487" s="6"/>
+      <c r="B487" s="9"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="13"/>
-      <c r="B488" s="11"/>
+      <c r="A488" s="6"/>
+      <c r="B488" s="9"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="13"/>
-      <c r="B489" s="11"/>
+      <c r="A489" s="6"/>
+      <c r="B489" s="9"/>
     </row>
     <row r="490" spans="1:2" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="14"/>
-      <c r="B490" s="12"/>
+      <c r="A490" s="7"/>
+      <c r="B490" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="B23:B105"/>
+    <mergeCell ref="A23:A105"/>
+    <mergeCell ref="B106:B150"/>
+    <mergeCell ref="A106:A150"/>
+    <mergeCell ref="B151:B219"/>
+    <mergeCell ref="A151:A219"/>
+    <mergeCell ref="B220:B276"/>
+    <mergeCell ref="A220:A276"/>
+    <mergeCell ref="A277:A313"/>
+    <mergeCell ref="B277:B313"/>
     <mergeCell ref="A440:A490"/>
     <mergeCell ref="B440:B490"/>
     <mergeCell ref="B314:B356"/>
@@ -3689,18 +3701,6 @@
     <mergeCell ref="A357:A401"/>
     <mergeCell ref="A402:A438"/>
     <mergeCell ref="B402:B438"/>
-    <mergeCell ref="B151:B219"/>
-    <mergeCell ref="A151:A219"/>
-    <mergeCell ref="B220:B276"/>
-    <mergeCell ref="A220:A276"/>
-    <mergeCell ref="A277:A313"/>
-    <mergeCell ref="B277:B313"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="B23:B105"/>
-    <mergeCell ref="A23:A105"/>
-    <mergeCell ref="B106:B150"/>
-    <mergeCell ref="A106:A150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
